--- a/gl4.buoy.PMEPAR.meta.xlsx
+++ b/gl4.buoy.PMEPAR.meta.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyloria/Documents/Niwot LTER 2017-2019/GL4 Sensor/Buoy Data/Buoy_QAQC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDDC22-1D66-3C4E-8550-5EB903BA6CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC71FFD-0577-F141-AF84-5AB61BD87427}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="480" windowWidth="20760" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="gl4_bouy.PMEPAR.meta" sheetId="2" r:id="rId2"/>
+    <sheet name="gl4_buoy.PMEPAR.meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="disciplines">metadata!$T$2:$T$13</definedName>
@@ -24062,7 +24062,7 @@
   <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
